--- a/2023-2024/week-5/Second_Group/AI.xlsx
+++ b/2023-2024/week-5/Second_Group/AI.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saif Service Center\Desktop\AI_project_week4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saif Service Center\Desktop\year4\ZhyaRebwar-Semester1\AI\Practical\AI-Practical-Tasks\2023-2024\week-5\Second_Group\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B00FD2-04C6-44C7-8032-CC43F921FD36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9602341E-F609-45E4-A040-A4BC883B07B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="3000" windowWidth="17280" windowHeight="8880" xr2:uid="{CD441CE6-D92A-4604-8CF1-EEB9FEC3A20F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CD441CE6-D92A-4604-8CF1-EEB9FEC3A20F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="11">
   <si>
     <t>Y</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>Flue</t>
+  </si>
+  <si>
+    <t>H</t>
   </si>
 </sst>
 </file>
@@ -420,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C3CDF3F-0A5A-44C3-A6D9-447267752515}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -539,13 +542,13 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
         <v>1</v>
@@ -556,32 +559,83 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
         <v>2</v>
       </c>
-      <c r="D8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="D11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>9</v>
       </c>
     </row>
